--- a/Tap_Tiles-Others.xlsx
+++ b/Tap_Tiles-Others.xlsx
@@ -1,26 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ishan\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B1D5714-E212-4B68-9719-DD7EE5FDFB2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EC88CF5-88E5-4026-829B-0E84F77A5CD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10704" yWindow="0" windowWidth="12336" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="146">
   <si>
     <t>Song Icon</t>
   </si>
@@ -31,33 +36,459 @@
     <t>Song URL</t>
   </si>
   <si>
-    <t>https://cdn-icons-png.flaticon.com/512/2815/2815428.png</t>
-  </si>
-  <si>
-    <t>Heya</t>
-  </si>
-  <si>
-    <t>https://www.pagalworld.com.sb/files/download/type/64/id/70390</t>
-  </si>
-  <si>
-    <t>Henlo I am longggggggggggggg</t>
+    <t>https://www.pagalworld.com.sb/siteuploads/thumb/sft145/72038_4.jpg</t>
+  </si>
+  <si>
+    <t>Millionaire (Glory)</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.sb/files/download/type/64/id/72038</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.sb/siteuploads/thumb/sft144/71840_1.jpg</t>
+  </si>
+  <si>
+    <t>Jo Tum Mere Ho</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.sb/files/download/type/64/id/71840</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.sb/siteuploads/thumb/sft144/71884_1.jpg</t>
+  </si>
+  <si>
+    <t>Khoobsurat </t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.sb/files/download/type/64/id/71884</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.sb/siteuploads/thumb/sft144/71618_1.jpg</t>
+  </si>
+  <si>
+    <t>Ishq (Lost Found)</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.sb/files/download/type/64/id/71618</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.sb/siteuploads/thumb/sft145/72203_1.jpg</t>
+  </si>
+  <si>
+    <t>Chal Kudiye</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.sb/files/download/type/64/id/72203</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.sb/siteuploads/thumb/sft143/71229_1.jpg</t>
+  </si>
+  <si>
+    <t>O Sajni Re</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.sb/files/download/type/64/id/71229</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.sb/siteuploads/thumb/sft144/71864_1.jpg</t>
+  </si>
+  <si>
+    <t>Tumhare Hi Rahenge Hum</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.sb/files/download/type/64/id/71864</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.sb/siteuploads/thumb/sft136/67561_1.jpg</t>
+  </si>
+  <si>
+    <t>Mourya Re </t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.sb/files/download/type/64/id/67561</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.sb/siteuploads/thumb/sft144/71941_1.jpg</t>
+  </si>
+  <si>
+    <t>Dil Tu Jaan Tu</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.sb/files/download/type/64/id/71941</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.sb/siteuploads/thumb/sft145/72210_1.jpg</t>
+  </si>
+  <si>
+    <t>Udantashtari</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.sb/files/download/type/64/id/72210</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.sb/siteuploads/thumb/sft145/72209_1.jpg</t>
+  </si>
+  <si>
+    <t>Enna Yaad </t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.sb/files/download/type/64/id/72209</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.sb/siteuploads/thumb/sft145/72208_1.jpg</t>
+  </si>
+  <si>
+    <t>Haule Haule </t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.sb/files/download/type/64/id/72208</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.sb/siteuploads/thumb/sft145/72207_1.jpg</t>
+  </si>
+  <si>
+    <t>Balam Thar Me </t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.sb/files/download/type/64/id/72207</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.sb/siteuploads/thumb/sft145/72206_1.jpg</t>
+  </si>
+  <si>
+    <t>Dark Night</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.sb/files/download/type/64/id/72206</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.sb/siteuploads/thumb/sft145/72205_1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.sb/files/download/type/64/id/72205</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.sb/siteuploads/thumb/sft145/72202_1.jpg</t>
+  </si>
+  <si>
+    <t>Tu Aayegi</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.sb/files/download/type/64/id/72202</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.sb/siteuploads/thumb/sft145/72201_1.jpg</t>
+  </si>
+  <si>
+    <t>Call </t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.sb/files/download/type/64/id/72201</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.sb/siteuploads/thumb/sft145/72200_1.jpg</t>
+  </si>
+  <si>
+    <t>Somebody </t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.sb/files/download/type/64/id/72200</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.sb/siteuploads/thumb/sft145/72199_1.jpg</t>
+  </si>
+  <si>
+    <t>Kajra Mohabbat Wala</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.sb/files/download/type/64/id/72199</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.sb/siteuploads/thumb/sft145/72198_1.jpg</t>
+  </si>
+  <si>
+    <t>DownTown </t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.sb/files/download/type/64/id/72198</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.sb/siteuploads/thumb/sft145/72197_1.jpg</t>
+  </si>
+  <si>
+    <t>Updated Balma </t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.sb/files/download/type/64/id/72197</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.sb/siteuploads/thumb/sft145/72196_1.jpg</t>
+  </si>
+  <si>
+    <t>Kahani Teri Meri </t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.sb/files/download/type/64/id/72196</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.sb/siteuploads/thumb/sft145/72194_1.jpg</t>
+  </si>
+  <si>
+    <t>Tamanna </t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.sb/files/download/type/64/id/72194</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.sb/siteuploads/thumb/sft145/72193_1.jpg</t>
+  </si>
+  <si>
+    <t>Guru Randhawa Mashup 2024 </t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.sb/files/download/type/64/id/72193</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.sb/siteuploads/thumb/sft145/72192_1.jpg</t>
+  </si>
+  <si>
+    <t>Main Hawa Mein Hu</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.sb/files/download/type/64/id/72192</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.sb/siteuploads/thumb/sft145/72191_1.jpg</t>
+  </si>
+  <si>
+    <t>Ik Kudi</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.sb/files/download/type/64/id/72191</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.sb/siteuploads/thumb/sft145/72190_1.jpg</t>
+  </si>
+  <si>
+    <t>Boutique </t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.sb/files/download/type/64/id/72190</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.sb/siteuploads/thumb/sft145/72188_1.jpg</t>
+  </si>
+  <si>
+    <t>Taare 2</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.sb/files/download/type/64/id/72188</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.sb/siteuploads/thumb/sft145/72187_1.jpg</t>
+  </si>
+  <si>
+    <t>Zaroor </t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.sb/files/download/type/64/id/72187</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.sb/siteuploads/thumb/sft145/72186_1.jpg</t>
+  </si>
+  <si>
+    <t>Kadar Na Jaane</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.sb/files/download/type/64/id/72186</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.sb/siteuploads/thumb/sft145/72185_1.jpg</t>
+  </si>
+  <si>
+    <t>Daku Company Mashup - Knockwell</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.sb/files/download/type/64/id/72185</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.sb/siteuploads/thumb/sft145/72184_1.jpg</t>
+  </si>
+  <si>
+    <t>Panihari </t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.sb/files/download/type/64/id/72184</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.sb/siteuploads/thumb/sft145/72183_1.jpg</t>
+  </si>
+  <si>
+    <t>Craze </t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.sb/files/download/type/64/id/72183</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.sb/siteuploads/thumb/sft145/72181_1.jpg</t>
+  </si>
+  <si>
+    <t>Rang Udaye </t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.sb/files/download/type/64/id/72181</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.sb/siteuploads/thumb/sft145/72179_1.jpg</t>
+  </si>
+  <si>
+    <t>Babu Ki Baby</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.sb/files/download/type/64/id/72179</t>
+  </si>
+  <si>
+    <t>Ek Ladki Bheegi Bhagi Si </t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.sb/files/download/type/64/id/72180</t>
+  </si>
+  <si>
+    <t>Kahan Shuru Kahan Khatam</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.sb/files/download/type/64/id/72178</t>
+  </si>
+  <si>
+    <t>Sehra - Female Version</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.sb/files/download/type/64/id/72182</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.sb/siteuploads/thumb/sft145/72177_1.jpg</t>
+  </si>
+  <si>
+    <t>Tere Dar Pe Sanam</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.sb/files/download/type/64/id/72177</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.sb/siteuploads/thumb/sft145/72176_1.jpg</t>
+  </si>
+  <si>
+    <t>Sehra</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.sb/files/download/type/64/id/72176</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.sb/siteuploads/thumb/sft145/72175_1.jpg</t>
+  </si>
+  <si>
+    <t>Phoolon Ka Taaro Ka</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.sb/files/download/type/64/id/72175</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.sb/siteuploads/thumb/sft145/72174_1.jpg</t>
+  </si>
+  <si>
+    <t>Feem </t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.sb/files/download/type/64/id/72174</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.sb/siteuploads/thumb/sft145/72173_1.jpg</t>
+  </si>
+  <si>
+    <t>Millionaire Remix</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.sb/files/download/type/64/id/72173</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.sb/siteuploads/thumb/sft145/72172_1.jpg</t>
+  </si>
+  <si>
+    <t>Aaj Ki Raat Remix</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.sb/files/download/type/64/id/72172</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.sb/siteuploads/thumb/sft145/72171_1.jpg</t>
+  </si>
+  <si>
+    <t>Sahiba </t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.sb/files/download/type/64/id/72171</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.sb/siteuploads/thumb/sft145/72170_1.jpg</t>
+  </si>
+  <si>
+    <t>Gandasa</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.sb/files/download/type/64/id/72170</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.sb/siteuploads/thumb/sft145/72169_1.jpg</t>
+  </si>
+  <si>
+    <t>Rollin Loud</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.sb/files/download/type/64/id/72169</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.sb/siteuploads/thumb/sft145/72168_1.jpg</t>
+  </si>
+  <si>
+    <t>Das Matt Lena </t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.sb/files/download/type/64/id/72168</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.sb/siteuploads/thumb/sft138/68671_1.jpg</t>
+  </si>
+  <si>
+    <t>O Mahi O Mahi</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.sb/files/download/type/64/id/68671</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -67,10 +498,24 @@
       <name val="Arial"/>
     </font>
     <font>
-      <u/>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
-      <color theme="10"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -93,13 +538,20 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -119,56 +571,116 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Sheets">
+    <a:clrScheme name="Office">
       <a:dk1>
-        <a:srgbClr val="000000"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="000000"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4285F4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="EA4335"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="FBBC04"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="34A853"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="FF6D01"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="46BDC6"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Sheets">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -311,27 +823,30 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="43.33203125" customWidth="1"/>
+    <col min="1" max="1" width="57.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="56.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -342,34 +857,548 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>5</v>
+      <c r="B3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16">
+        <v>999</v>
+      </c>
+      <c r="C16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>74</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>77</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>80</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>83</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C29" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>86</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C30" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>89</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C31" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>92</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C32" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>95</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C33" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>98</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C34" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>101</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C35" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>104</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C36" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>104</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C37" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>104</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C38" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>104</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C39" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>113</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C40" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>116</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C41" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>119</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C42" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>122</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C43" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>125</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C44" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>128</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C45" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>131</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C46" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>134</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C47" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>137</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C48" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>140</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C49" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>143</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C50" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{424B4BAE-B1FE-4FD7-810D-F6B7796FA4FC}"/>
-    <hyperlink ref="A3" r:id="rId3" xr:uid="{78EBB599-472D-4A26-B655-E99B57F3E614}"/>
-    <hyperlink ref="C3" r:id="rId4" xr:uid="{F7928D75-EFD2-4F22-B672-AC7FD90F0E02}"/>
+    <hyperlink ref="C4" r:id="rId1" xr:uid="{5A2A198B-9F70-4750-9F12-E2349FF99DAE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
